--- a/data/trans_orig/Q03B_LAB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_LAB-Estudios-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.180703853080561</v>
+        <v>1.166438546033381</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.229922171549913</v>
+        <v>1.221564469899386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.538890441532461</v>
+        <v>1.5381905337871</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.751612084229068</v>
+        <v>3.749458942344927</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.569058044082899</v>
+        <v>3.565614343397408</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.613255251599035</v>
+        <v>3.601543956734386</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.631502990986185</v>
+        <v>2.629973402716417</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.602037006090136</v>
+        <v>2.59455003910054</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.759241322198447</v>
+        <v>2.767321128905444</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.423257685766699</v>
+        <v>1.426690146471934</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.441841614963776</v>
+        <v>1.453269495416343</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.779773125272563</v>
+        <v>1.790545986505053</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.033446100166639</v>
+        <v>4.03617745252271</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.828339701497127</v>
+        <v>3.822415828307041</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.900892793409065</v>
+        <v>3.88716731228296</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.857888332899014</v>
+        <v>2.854674127501494</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.801051360931598</v>
+        <v>2.801109205800121</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.986770123962075</v>
+        <v>2.989531379160415</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.0283996784041</v>
+        <v>1.028471729741181</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.407970938181906</v>
+        <v>1.417723411414128</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.593937941954054</v>
+        <v>1.595037340301473</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.45992930592891</v>
+        <v>3.457082943442167</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.535986577099447</v>
+        <v>3.537031772216493</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.408015110088314</v>
+        <v>3.410860650767586</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.226788128616906</v>
+        <v>2.224122419404061</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.428136193142279</v>
+        <v>2.432549340058901</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.509419645772909</v>
+        <v>2.506135306419795</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.200058032216089</v>
+        <v>1.206173871604288</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.551286852920719</v>
+        <v>1.558240333285828</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.732123405941919</v>
+        <v>1.73709255063</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.702267403533869</v>
+        <v>3.713268192843898</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.752591062919464</v>
+        <v>3.757173268464114</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.58342893115164</v>
+        <v>3.584340595618116</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.401238331295092</v>
+        <v>2.39299534955351</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.568074340467088</v>
+        <v>2.574406176478149</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.637830993123244</v>
+        <v>2.639985949634919</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.221717593914027</v>
+        <v>1.233543654208969</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.402371319746279</v>
+        <v>1.393029677044763</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.717979401876078</v>
+        <v>1.724627208211561</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.437357854894411</v>
+        <v>2.436523176257415</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.798453219195066</v>
+        <v>2.793260011480762</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.892374197365176</v>
+        <v>2.86803114202544</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.834146356681723</v>
+        <v>1.832925410088972</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.115316015773062</v>
+        <v>2.106915590185123</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.337721072282612</v>
+        <v>2.333303011565827</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.537445939668192</v>
+        <v>1.544951312100664</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.670032369856061</v>
+        <v>1.65568253154375</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.957108285737714</v>
+        <v>1.963982448294019</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.778784877477648</v>
+        <v>2.775987037484869</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.16794443145409</v>
+        <v>3.153210020375968</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.242299048716404</v>
+        <v>3.230499283890931</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.077264302376347</v>
+        <v>2.071845500535665</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.366590436847118</v>
+        <v>2.355013440529417</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.56416861326576</v>
+        <v>2.570505403806674</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.145404483415161</v>
+        <v>1.153428295596955</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.391752714093792</v>
+        <v>1.386601561381853</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.630774702792541</v>
+        <v>1.636862741419827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.474423732102193</v>
+        <v>3.471078312616116</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.494776687811091</v>
+        <v>3.499479552598121</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.427751800163471</v>
+        <v>3.423217752348672</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.34767509448155</v>
+        <v>2.34450547994658</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.478961432582486</v>
+        <v>2.480498225485755</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.579919383478098</v>
+        <v>2.578589397085201</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.273161238974792</v>
+        <v>1.282837732001741</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.502911313789057</v>
+        <v>1.504546726776774</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.737288013962616</v>
+        <v>1.746481926109635</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.654077673223283</v>
+        <v>3.637341718750594</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.658312003435372</v>
+        <v>3.649998900261641</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.567360530870508</v>
+        <v>3.568661069331027</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.468764757836584</v>
+        <v>2.47103897222979</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.583620821423901</v>
+        <v>2.590469660068505</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.676692536664381</v>
+        <v>2.674106720140043</v>
       </c>
     </row>
     <row r="16">
